--- a/Formatted_Merged_DailyPL.xlsx
+++ b/Formatted_Merged_DailyPL.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,14 +439,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="19" customWidth="1" min="2" max="2"/>
-    <col width="17" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="17" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="19" customWidth="1" min="8" max="8"/>
-    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -457,42 +452,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>TodayUnrealizedPL</t>
+          <t>Daily PL - TodayRealizedPL</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>TodayRealizedPL</t>
+          <t>Daily PL - TodayCouponInterest</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>TodayCouponInterest</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>TodayTotalPL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MTDUnrealizedPL</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>MTDRealizedPL</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MTDCouponInterest</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>MTDTotalPL</t>
+          <t>Daily PL - TodayTotalPL</t>
         </is>
       </c>
     </row>
@@ -503,28 +473,13 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
         <v>-0.0001</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>-0.0001</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>5961.3962</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>5961.3962</v>
       </c>
     </row>
     <row r="3">
@@ -534,28 +489,13 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0</v>
+        <v>4190.2996</v>
       </c>
       <c r="C3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="n">
         <v>4190.2996</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>4190.2996</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>22650.847</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>22650.847</v>
       </c>
     </row>
     <row r="4">
@@ -565,28 +505,13 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-286.9829999999999</v>
+        <v>-643.0442</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-643.0442</v>
+        <v>659.8446</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>659.8446</v>
-      </c>
-      <c r="E4" s="2" t="n">
         <v>-270.1826</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>-1491.8189</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>364.2935</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>15824.4317</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>14696.9063</v>
       </c>
     </row>
     <row r="5">
@@ -596,28 +521,13 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>5497.8078</v>
+        <v>-25.9929</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-25.9929</v>
+        <v>2948.9307</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>2948.9307</v>
-      </c>
-      <c r="E5" s="2" t="n">
         <v>8420.7456</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>-5223.8137</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>10487.8611</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>75367.2163</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>80631.2637</v>
       </c>
     </row>
     <row r="6">
@@ -627,28 +537,13 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0</v>
+        <v>1190</v>
       </c>
       <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="n">
         <v>1190</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>1190</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>17452.1</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>-6.7291</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>17445.3709</v>
       </c>
     </row>
     <row r="7">
@@ -658,28 +553,13 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>9170</v>
+        <v>5226913.45</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>5226913.45</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="n">
         <v>5236083.45</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>9170</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>5577868.350000001</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>1104.8609</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>5588143.2109</v>
       </c>
     </row>
     <row r="8">
@@ -689,28 +569,13 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0</v>
+        <v>2633505.5</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>2633505.5</v>
+        <v>379.8611</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>379.8611</v>
-      </c>
-      <c r="E8" s="2" t="n">
         <v>2633885.3611</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>2663343.45</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>1078.4723</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>2664421.9223</v>
       </c>
     </row>
     <row r="9">
@@ -720,28 +585,13 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0</v>
+        <v>807.7613</v>
       </c>
       <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="n">
         <v>807.7613</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>807.7613</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>26098.8519</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>2412.5326</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>19798.8045</v>
       </c>
     </row>
     <row r="10">
@@ -751,28 +601,13 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>3575.2</v>
+        <v>535.7498000000001</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>535.7498000000001</v>
+        <v>282.8593</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>282.8593</v>
-      </c>
-      <c r="E10" s="2" t="n">
         <v>4393.8091</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>-24091.8625</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>13463.5123</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>7370.9358</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>-3257.414400000001</v>
       </c>
     </row>
     <row r="11">
@@ -782,28 +617,13 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-0.058</v>
+        <v>0</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0</v>
+        <v>0.0051</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.0051</v>
-      </c>
-      <c r="E11" s="2" t="n">
         <v>-0.0529</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>-1.441</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>0.1224</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>-1.3186</v>
       </c>
     </row>
     <row r="12">
@@ -813,28 +633,13 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0</v>
+        <v>449.9996</v>
       </c>
       <c r="C12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="n">
         <v>449.9996</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>449.9996</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>1707.4996</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>1707.4996</v>
       </c>
     </row>
     <row r="13">
@@ -852,21 +657,6 @@
       <c r="D13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>5555.48</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>5555.48</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -875,28 +665,13 @@
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-72.255</v>
+        <v>9524.507800000001</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>9524.507800000001</v>
+        <v>-13.0224</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-13.0224</v>
-      </c>
-      <c r="E14" s="2" t="n">
         <v>9439.2304</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>1629.4187</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>-99375.07890000001</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>1757.4863</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>-95988.17389999999</v>
       </c>
     </row>
     <row r="15">
@@ -906,28 +681,13 @@
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>13865.5601</v>
+        <v>1506.149999999999</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>1506.149999999999</v>
+        <v>442.318</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>442.318</v>
-      </c>
-      <c r="E15" s="2" t="n">
         <v>15814.0281</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>-9413.264299999999</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>36554.5968</v>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>9225.2984</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>36366.6309</v>
       </c>
     </row>
     <row r="16">
@@ -937,28 +697,13 @@
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0</v>
+        <v>-3335.5124</v>
       </c>
       <c r="C16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="n">
         <v>-3335.5124</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>-3335.5124</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>148073.0239</v>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>148073.0239</v>
       </c>
     </row>
     <row r="17">
@@ -976,21 +721,6 @@
       <c r="D17" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -999,28 +729,13 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>460</v>
+        <v>-0.0001</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-0.0001</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2" t="n">
         <v>459.9999</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>10260</v>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>-0.0001</v>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>10259.9999</v>
       </c>
     </row>
     <row r="19">
@@ -1030,28 +745,13 @@
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>10618.2002</v>
+        <v>15881.3578</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>15881.3578</v>
+        <v>396.8487</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>396.8487</v>
-      </c>
-      <c r="E19" s="2" t="n">
         <v>26896.4067</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>172844.3735</v>
-      </c>
-      <c r="G19" s="2" t="n">
-        <v>-174246.9322</v>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>-2520.5232</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>-3923.081900000009</v>
       </c>
     </row>
     <row r="20">
@@ -1061,28 +761,13 @@
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>0</v>
+        <v>3260</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>3260</v>
+        <v>102.459</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>102.459</v>
-      </c>
-      <c r="E20" s="2" t="n">
         <v>3362.459</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2" t="n">
-        <v>17205</v>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>-102.4591</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>17102.5409</v>
       </c>
     </row>
     <row r="21">
@@ -1092,28 +777,13 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>9</v>
+        <v>0.001</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0.001</v>
+        <v>1.375</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1.375</v>
-      </c>
-      <c r="E21" s="2" t="n">
         <v>10.376</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>34.25</v>
-      </c>
-      <c r="G21" s="2" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>45.251</v>
       </c>
     </row>
     <row r="22">
@@ -1123,28 +793,13 @@
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-72870.5</v>
+        <v>2040</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>2040</v>
+        <v>-356.1643</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-356.1643</v>
-      </c>
-      <c r="E22" s="2" t="n">
         <v>-71186.6643</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>-58625.5</v>
-      </c>
-      <c r="G22" s="2" t="n">
-        <v>-17151</v>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>1926.0281</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>-73850.4719</v>
       </c>
     </row>
     <row r="23">
@@ -1154,28 +809,13 @@
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-2007.0966</v>
+        <v>0</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>0</v>
+        <v>363.6451</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>363.6451</v>
-      </c>
-      <c r="E23" s="2" t="n">
         <v>-1643.4515</v>
-      </c>
-      <c r="F23" s="2" t="n">
-        <v>-17900.5734</v>
-      </c>
-      <c r="G23" s="2" t="n">
-        <v>16804.7749</v>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>9368.682199999999</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>8272.8837</v>
       </c>
     </row>
     <row r="24">
@@ -1185,28 +825,13 @@
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0</v>
+        <v>-12518.3932</v>
       </c>
       <c r="C24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2" t="n">
         <v>-12518.3932</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2" t="n">
-        <v>-12518.3932</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>183732.1801</v>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>183732.1801</v>
       </c>
     </row>
     <row r="25">
@@ -1216,28 +841,13 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="C25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2" t="n">
         <v>-0.0002</v>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2" t="n">
-        <v>-0.0002</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2" t="n">
-        <v>10.8334</v>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>10.8334</v>
       </c>
     </row>
     <row r="26">
@@ -1247,27 +857,12 @@
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-0.0001</v>
+        <v>0</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>-0.0001</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2" t="n">
-        <v>-0.0001</v>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2" t="n">
         <v>-0.0001</v>
       </c>
     </row>
@@ -1278,28 +873,13 @@
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-32041.12450000001</v>
+        <v>7883281.833700001</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>7883281.833700001</v>
+        <v>5208.9599</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>5208.9599</v>
-      </c>
-      <c r="E27" s="2" t="n">
         <v>7856449.6691</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>77189.7684</v>
-      </c>
-      <c r="G27" s="2" t="n">
-        <v>8456561.0404</v>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>122817.3556</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>8647855.5844</v>
       </c>
     </row>
   </sheetData>
